--- a/combat/db25.xlsx
+++ b/combat/db25.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5324" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5401" uniqueCount="492">
   <si>
     <t>1_спортсмен_фио</t>
   </si>
@@ -1564,28 +1564,58 @@
     <t>1,0.2</t>
   </si>
   <si>
-    <t>2,0.2</t>
-  </si>
-  <si>
     <t>0, 1, 0.2</t>
   </si>
   <si>
-    <t>1, 10</t>
-  </si>
-  <si>
-    <t>1,0,1,2,10</t>
-  </si>
-  <si>
-    <t>1,10</t>
-  </si>
-  <si>
-    <t>2, 10</t>
-  </si>
-  <si>
-    <t>0,0,1,10</t>
-  </si>
-  <si>
-    <t>2,10</t>
+    <t>бл, кабр</t>
+  </si>
+  <si>
+    <t>бл, кабр, ппуд</t>
+  </si>
+  <si>
+    <t>алнбк, кабр</t>
+  </si>
+  <si>
+    <t>1,0,1,2,5</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>2, 5</t>
+  </si>
+  <si>
+    <t>2,5</t>
+  </si>
+  <si>
+    <t>0,0</t>
+  </si>
+  <si>
+    <t>апрпк, апрбг, ппб, ппуд, ппудпр</t>
+  </si>
+  <si>
+    <t>1,0</t>
+  </si>
+  <si>
+    <t>0,1,0,0</t>
+  </si>
+  <si>
+    <t>0,0,1,0,0</t>
+  </si>
+  <si>
+    <t>0,1, 5</t>
+  </si>
+  <si>
+    <t>0,0,0.2</t>
+  </si>
+  <si>
+    <t>0,2,0</t>
+  </si>
+  <si>
+    <t>апррг,алнпк</t>
+  </si>
+  <si>
+    <t>0,1,5</t>
   </si>
 </sst>
 </file>
@@ -1851,7 +1881,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2348,6 +2378,18 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2626,8 +2668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L390"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="A331" workbookViewId="0">
+      <selection activeCell="A351" sqref="A351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -15080,8 +15122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J376"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" topLeftCell="A349" workbookViewId="0">
+      <selection activeCell="H374" sqref="H374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15251,8 +15293,8 @@
       <c r="H5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>467</v>
+      <c r="I5" s="6">
+        <v>0.2</v>
       </c>
       <c r="J5" s="24">
         <v>0</v>
@@ -15283,11 +15325,11 @@
       <c r="H6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="24">
-        <v>0</v>
+      <c r="I6" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.75">
@@ -15318,8 +15360,8 @@
       <c r="I7" s="6">
         <v>0</v>
       </c>
-      <c r="J7" s="24">
-        <v>0</v>
+      <c r="J7" s="24" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18.75">
@@ -15414,8 +15456,8 @@
       <c r="I10" s="6">
         <v>0</v>
       </c>
-      <c r="J10" s="24">
-        <v>0</v>
+      <c r="J10" s="24" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18.75">
@@ -15572,8 +15614,8 @@
       <c r="I15" s="6">
         <v>0</v>
       </c>
-      <c r="J15" s="24">
-        <v>0</v>
+      <c r="J15" s="24" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="18.75">
@@ -15633,8 +15675,8 @@
       <c r="H17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I17" s="6">
-        <v>0</v>
+      <c r="I17" s="6" t="s">
+        <v>482</v>
       </c>
       <c r="J17" s="24" t="s">
         <v>464</v>
@@ -15700,8 +15742,8 @@
       <c r="I19" s="6">
         <v>0</v>
       </c>
-      <c r="J19" s="24">
-        <v>0</v>
+      <c r="J19" s="24" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="18.75">
@@ -15892,8 +15934,8 @@
       <c r="I25" s="6">
         <v>0</v>
       </c>
-      <c r="J25" s="24">
-        <v>1</v>
+      <c r="J25" s="24" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="18.75">
@@ -15924,8 +15966,8 @@
       <c r="I26" s="6">
         <v>0</v>
       </c>
-      <c r="J26" s="24">
-        <v>0</v>
+      <c r="J26" s="24" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="18.75">
@@ -15956,8 +15998,8 @@
       <c r="I27" s="6">
         <v>0</v>
       </c>
-      <c r="J27" s="24">
-        <v>0</v>
+      <c r="J27" s="24" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="18.75">
@@ -16145,8 +16187,8 @@
       <c r="H33" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I33" s="6">
-        <v>1</v>
+      <c r="I33" s="6" t="s">
+        <v>464</v>
       </c>
       <c r="J33" s="24">
         <v>0</v>
@@ -16364,13 +16406,13 @@
         <v>2</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>61</v>
+        <v>475</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I40" s="2">
-        <v>0.2</v>
+      <c r="I40" s="2" t="s">
+        <v>471</v>
       </c>
       <c r="J40" s="26">
         <v>0</v>
@@ -16404,8 +16446,8 @@
       <c r="I41" s="2">
         <v>0</v>
       </c>
-      <c r="J41" s="26">
-        <v>0</v>
+      <c r="J41" s="26" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="18.75">
@@ -16433,11 +16475,11 @@
       <c r="H42" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="I42" s="85">
-        <v>0</v>
+      <c r="I42" s="85" t="s">
+        <v>482</v>
       </c>
       <c r="J42" s="25" t="s">
-        <v>24</v>
+        <v>485</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="18.75">
@@ -16593,11 +16635,11 @@
       <c r="H47" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I47" s="2">
-        <v>1</v>
-      </c>
-      <c r="J47" s="26">
-        <v>0</v>
+      <c r="I47" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="J47" s="26" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="18.75">
@@ -16820,8 +16862,8 @@
       <c r="I54" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="J54" s="26">
-        <v>0</v>
+      <c r="J54" s="26" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="18.75">
@@ -16945,11 +16987,11 @@
       <c r="H58" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I58" s="2">
-        <v>0</v>
-      </c>
-      <c r="J58" s="26">
-        <v>1</v>
+      <c r="I58" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="J58" s="26" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="18.75">
@@ -16980,8 +17022,8 @@
       <c r="I59" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="J59" s="26">
-        <v>1</v>
+      <c r="J59" s="26" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="18.75">
@@ -17105,11 +17147,11 @@
       <c r="H63" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I63" s="2" t="s">
+      <c r="I63" s="2">
+        <v>0</v>
+      </c>
+      <c r="J63" s="26" t="s">
         <v>464</v>
-      </c>
-      <c r="J63" s="26">
-        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="18.75">
@@ -17172,8 +17214,8 @@
       <c r="I65" s="85">
         <v>0</v>
       </c>
-      <c r="J65" s="25">
-        <v>0</v>
+      <c r="J65" s="25" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="18.75">
@@ -17233,11 +17275,11 @@
       <c r="H67" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="I67" s="78">
-        <v>0</v>
-      </c>
-      <c r="J67" s="26">
-        <v>0</v>
+      <c r="I67" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="J67" s="26" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="18.75">
@@ -17300,8 +17342,8 @@
       <c r="I69" s="78" t="s">
         <v>472</v>
       </c>
-      <c r="J69" s="26">
-        <v>0</v>
+      <c r="J69" s="26" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="18.75">
@@ -17330,10 +17372,10 @@
         <v>91</v>
       </c>
       <c r="I70" s="78" t="s">
-        <v>92</v>
+        <v>486</v>
       </c>
       <c r="J70" s="26" t="s">
-        <v>464</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="18.75">
@@ -17356,16 +17398,16 @@
         <v>2</v>
       </c>
       <c r="G71" s="78" t="s">
-        <v>93</v>
+        <v>476</v>
       </c>
       <c r="H71" s="78" t="s">
         <v>94</v>
       </c>
       <c r="I71" s="78" t="s">
-        <v>476</v>
-      </c>
-      <c r="J71" s="26">
-        <v>0</v>
+        <v>487</v>
+      </c>
+      <c r="J71" s="26" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="18.75">
@@ -17457,8 +17499,8 @@
       <c r="H74" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="I74" s="78">
-        <v>0</v>
+      <c r="I74" s="25" t="s">
+        <v>482</v>
       </c>
       <c r="J74" s="36">
         <v>0</v>
@@ -17492,8 +17534,8 @@
       <c r="I75" s="78">
         <v>0</v>
       </c>
-      <c r="J75" s="36">
-        <v>0</v>
+      <c r="J75" s="25" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="18.75">
@@ -17617,11 +17659,11 @@
       <c r="H79" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="I79" s="35">
-        <v>0</v>
-      </c>
-      <c r="J79" s="36">
-        <v>0</v>
+      <c r="I79" s="35" t="s">
+        <v>482</v>
+      </c>
+      <c r="J79" s="36" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="18.75">
@@ -17713,8 +17755,8 @@
       <c r="H82" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="I82" s="78">
-        <v>1</v>
+      <c r="I82" s="78" t="s">
+        <v>464</v>
       </c>
       <c r="J82" s="36">
         <v>0</v>
@@ -17844,8 +17886,8 @@
       <c r="I86" s="35" t="s">
         <v>464</v>
       </c>
-      <c r="J86" s="36">
-        <v>0</v>
+      <c r="J86" s="36" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="18.75">
@@ -17908,8 +17950,8 @@
       <c r="I88" s="35">
         <v>0</v>
       </c>
-      <c r="J88" s="36">
-        <v>0</v>
+      <c r="J88" s="36" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="18.75">
@@ -17932,13 +17974,13 @@
         <v>1</v>
       </c>
       <c r="G89" s="35" t="s">
-        <v>112</v>
+        <v>483</v>
       </c>
       <c r="H89" s="35" t="s">
         <v>113</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="J89" s="36" t="s">
         <v>53</v>
@@ -18033,8 +18075,8 @@
       <c r="H92" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="I92" s="2">
-        <v>0</v>
+      <c r="I92" s="2" t="s">
+        <v>482</v>
       </c>
       <c r="J92" s="36">
         <v>0</v>
@@ -18092,7 +18134,7 @@
         <v>2</v>
       </c>
       <c r="G94" s="35" t="s">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c r="H94" s="35" t="s">
         <v>25</v>
@@ -18124,7 +18166,7 @@
         <v>2</v>
       </c>
       <c r="G95" s="35" t="s">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c r="H95" s="35" t="s">
         <v>123</v>
@@ -18132,8 +18174,8 @@
       <c r="I95" s="2">
         <v>0</v>
       </c>
-      <c r="J95" s="36">
-        <v>0</v>
+      <c r="J95" s="36" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="18.75">
@@ -18188,13 +18230,13 @@
         <v>2</v>
       </c>
       <c r="G97" s="35" t="s">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c r="H97" s="35" t="s">
         <v>25</v>
       </c>
       <c r="I97" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J97" s="36">
         <v>0</v>
@@ -18578,7 +18620,7 @@
         <v>139</v>
       </c>
       <c r="I109" s="35" t="s">
-        <v>140</v>
+        <v>485</v>
       </c>
       <c r="J109" s="36" t="s">
         <v>141</v>
@@ -18671,7 +18713,7 @@
         <v>31</v>
       </c>
       <c r="H112" s="35" t="s">
-        <v>142</v>
+        <v>477</v>
       </c>
       <c r="I112" s="35">
         <v>1</v>
@@ -18705,8 +18747,8 @@
       <c r="H113" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="I113" s="35">
-        <v>0</v>
+      <c r="I113" s="35" t="s">
+        <v>482</v>
       </c>
       <c r="J113" s="36">
         <v>0</v>
@@ -18737,11 +18779,11 @@
       <c r="H114" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="I114" s="35">
-        <v>0</v>
-      </c>
-      <c r="J114" s="36">
-        <v>0</v>
+      <c r="I114" s="35" t="s">
+        <v>482</v>
+      </c>
+      <c r="J114" s="36" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="18.75">
@@ -18769,8 +18811,8 @@
       <c r="H115" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="I115" s="35">
-        <v>1</v>
+      <c r="I115" s="35" t="s">
+        <v>464</v>
       </c>
       <c r="J115" s="36">
         <v>0</v>
@@ -18804,8 +18846,8 @@
       <c r="I116" s="35">
         <v>0</v>
       </c>
-      <c r="J116" s="36">
-        <v>0</v>
+      <c r="J116" s="36" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="18.75">
@@ -18868,8 +18910,8 @@
       <c r="I118" s="35">
         <v>0</v>
       </c>
-      <c r="J118" s="36">
-        <v>1</v>
+      <c r="J118" s="36" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="18.75">
@@ -18933,7 +18975,7 @@
         <v>465</v>
       </c>
       <c r="J120" s="36" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="18.75">
@@ -19345,8 +19387,8 @@
       <c r="H133" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="I133" s="35">
-        <v>0</v>
+      <c r="I133" s="35" t="s">
+        <v>482</v>
       </c>
       <c r="J133" s="36">
         <v>0</v>
@@ -19601,11 +19643,11 @@
       <c r="H141" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="I141" s="35">
-        <v>1</v>
-      </c>
-      <c r="J141" s="36">
-        <v>0</v>
+      <c r="I141" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="J141" s="36" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="18.75">
@@ -19956,8 +19998,8 @@
       <c r="I152" s="70">
         <v>0</v>
       </c>
-      <c r="J152" s="71">
-        <v>0</v>
+      <c r="J152" s="178" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="18.75">
@@ -20145,11 +20187,11 @@
       <c r="H158" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="I158" s="70">
-        <v>0</v>
-      </c>
-      <c r="J158" s="71" t="s">
-        <v>464</v>
+      <c r="I158" s="179" t="s">
+        <v>482</v>
+      </c>
+      <c r="J158" s="178" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="18.75">
@@ -20244,8 +20286,8 @@
       <c r="I161" s="70" t="s">
         <v>175</v>
       </c>
-      <c r="J161" s="71">
-        <v>0</v>
+      <c r="J161" s="178" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="18.75">
@@ -20305,8 +20347,8 @@
       <c r="H163" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="I163" s="70" t="s">
-        <v>24</v>
+      <c r="I163" s="179" t="s">
+        <v>485</v>
       </c>
       <c r="J163" s="71">
         <v>0</v>
@@ -20369,11 +20411,11 @@
       <c r="H165" s="73" t="s">
         <v>178</v>
       </c>
-      <c r="I165" s="72" t="s">
-        <v>175</v>
-      </c>
-      <c r="J165" s="74">
-        <v>0</v>
+      <c r="I165" s="180" t="s">
+        <v>194</v>
+      </c>
+      <c r="J165" s="181" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="18.75">
@@ -20690,7 +20732,7 @@
         <v>39</v>
       </c>
       <c r="I175" s="88" t="s">
-        <v>199</v>
+        <v>465</v>
       </c>
       <c r="J175" s="119">
         <v>0</v>
@@ -20753,8 +20795,8 @@
       <c r="H177" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="I177" s="88">
-        <v>1</v>
+      <c r="I177" s="88" t="s">
+        <v>464</v>
       </c>
       <c r="J177" s="119">
         <v>0</v>
@@ -20817,9 +20859,7 @@
       <c r="H179" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="I179" s="88" t="s">
-        <v>474</v>
-      </c>
+      <c r="I179" s="88"/>
       <c r="J179" s="119">
         <v>0</v>
       </c>
@@ -20849,8 +20889,8 @@
       <c r="H180" s="88" t="s">
         <v>203</v>
       </c>
-      <c r="I180" s="88">
-        <v>1</v>
+      <c r="I180" s="88" t="s">
+        <v>464</v>
       </c>
       <c r="J180" s="119">
         <v>0</v>
@@ -20978,7 +21018,7 @@
         <v>209</v>
       </c>
       <c r="I184" s="88" t="s">
-        <v>210</v>
+        <v>484</v>
       </c>
       <c r="J184" s="119" t="s">
         <v>24</v>
@@ -21009,11 +21049,11 @@
       <c r="H185" s="91" t="s">
         <v>212</v>
       </c>
-      <c r="I185" s="88">
-        <v>0</v>
-      </c>
-      <c r="J185" s="119">
-        <v>0</v>
+      <c r="I185" s="88" t="s">
+        <v>482</v>
+      </c>
+      <c r="J185" s="119" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="186" spans="1:10" ht="18.75">
@@ -21105,8 +21145,8 @@
       <c r="H188" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I188" s="91" t="s">
-        <v>474</v>
+      <c r="I188" s="91">
+        <v>2.2000000000000002</v>
       </c>
       <c r="J188" s="93">
         <v>1</v>
@@ -21524,8 +21564,8 @@
       <c r="I201" s="91">
         <v>0</v>
       </c>
-      <c r="J201" s="119">
-        <v>1</v>
+      <c r="J201" s="119" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="202" spans="1:10" ht="18.75">
@@ -21617,8 +21657,8 @@
       <c r="H204" s="102" t="s">
         <v>216</v>
       </c>
-      <c r="I204" s="95">
-        <v>0</v>
+      <c r="I204" s="95" t="s">
+        <v>482</v>
       </c>
       <c r="J204" s="103">
         <v>0</v>
@@ -22068,8 +22108,8 @@
       <c r="I218" s="91">
         <v>0</v>
       </c>
-      <c r="J218" s="93">
-        <v>0</v>
+      <c r="J218" s="93" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="219" spans="1:10" ht="18.75">
@@ -22161,8 +22201,8 @@
       <c r="H221" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="I221" s="95">
-        <v>0</v>
+      <c r="I221" s="95" t="s">
+        <v>482</v>
       </c>
       <c r="J221" s="103">
         <v>0</v>
@@ -22257,8 +22297,8 @@
       <c r="H224" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="I224" s="91">
-        <v>1</v>
+      <c r="I224" s="91" t="s">
+        <v>484</v>
       </c>
       <c r="J224" s="93">
         <v>0</v>
@@ -22386,7 +22426,7 @@
         <v>39</v>
       </c>
       <c r="I228" s="95" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="J228" s="103">
         <v>0</v>
@@ -22481,8 +22521,8 @@
       <c r="H231" s="91" t="s">
         <v>229</v>
       </c>
-      <c r="I231" s="91">
-        <v>1</v>
+      <c r="I231" s="91" t="s">
+        <v>24</v>
       </c>
       <c r="J231" s="93">
         <v>1</v>
@@ -23377,8 +23417,8 @@
       <c r="H259" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="I259" s="91">
-        <v>1</v>
+      <c r="I259" s="91" t="s">
+        <v>484</v>
       </c>
       <c r="J259" s="93">
         <v>0</v>
@@ -23474,7 +23514,7 @@
         <v>59</v>
       </c>
       <c r="I262" s="91" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J262" s="93">
         <v>0</v>
@@ -23569,11 +23609,11 @@
       <c r="H265" s="91" t="s">
         <v>242</v>
       </c>
-      <c r="I265" s="91">
-        <v>0</v>
-      </c>
-      <c r="J265" s="93">
-        <v>0</v>
+      <c r="I265" s="91" t="s">
+        <v>175</v>
+      </c>
+      <c r="J265" s="93" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="266" spans="1:10" ht="18.75">
@@ -23633,8 +23673,8 @@
       <c r="H267" s="91" t="s">
         <v>244</v>
       </c>
-      <c r="I267" s="91">
-        <v>0</v>
+      <c r="I267" s="91" t="s">
+        <v>175</v>
       </c>
       <c r="J267" s="93" t="s">
         <v>245</v>
@@ -23697,8 +23737,8 @@
       <c r="H269" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="I269" s="91">
-        <v>0</v>
+      <c r="I269" s="91" t="s">
+        <v>482</v>
       </c>
       <c r="J269" s="93">
         <v>0</v>
@@ -23729,11 +23769,11 @@
       <c r="H270" s="91" t="s">
         <v>248</v>
       </c>
-      <c r="I270" s="91">
-        <v>0</v>
-      </c>
-      <c r="J270" s="93">
-        <v>0</v>
+      <c r="I270" s="91" t="s">
+        <v>175</v>
+      </c>
+      <c r="J270" s="93" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="271" spans="1:10" ht="18.75">
@@ -23889,11 +23929,11 @@
       <c r="H275" s="91" t="s">
         <v>249</v>
       </c>
-      <c r="I275" s="91">
-        <v>0</v>
-      </c>
-      <c r="J275" s="93">
-        <v>0</v>
+      <c r="I275" s="91" t="s">
+        <v>175</v>
+      </c>
+      <c r="J275" s="93" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="276" spans="1:10" ht="18.75">
@@ -23953,11 +23993,11 @@
       <c r="H277" s="91" t="s">
         <v>251</v>
       </c>
-      <c r="I277" s="91">
-        <v>0</v>
-      </c>
-      <c r="J277" s="93">
-        <v>0</v>
+      <c r="I277" s="91" t="s">
+        <v>482</v>
+      </c>
+      <c r="J277" s="93" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="278" spans="1:10" ht="18.75">
@@ -24018,7 +24058,7 @@
         <v>39</v>
       </c>
       <c r="I279" s="95" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J279" s="103">
         <v>0</v>
@@ -24341,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="J289" s="103" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="290" spans="1:10" ht="18.75">
@@ -24884,8 +24924,8 @@
       <c r="I306" s="118">
         <v>0</v>
       </c>
-      <c r="J306" s="119">
-        <v>1</v>
+      <c r="J306" s="119" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="307" spans="1:10" ht="18.75">
@@ -24945,11 +24985,11 @@
       <c r="H308" s="118" t="s">
         <v>262</v>
       </c>
-      <c r="I308" s="118">
-        <v>2</v>
-      </c>
-      <c r="J308" s="119">
-        <v>0</v>
+      <c r="I308" s="118" t="s">
+        <v>489</v>
+      </c>
+      <c r="J308" s="119" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="309" spans="1:10" ht="18.75">
@@ -25361,8 +25401,8 @@
       <c r="H321" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="I321" s="113" t="s">
-        <v>478</v>
+      <c r="I321" s="113">
+        <v>5</v>
       </c>
       <c r="J321" s="120">
         <v>0</v>
@@ -25713,8 +25753,8 @@
       <c r="H332" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="I332" s="118" t="s">
-        <v>473</v>
+      <c r="I332" s="118">
+        <v>1.2</v>
       </c>
       <c r="J332" s="119">
         <v>1</v>
@@ -25777,8 +25817,8 @@
       <c r="H334" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="I334" s="113" t="s">
-        <v>473</v>
+      <c r="I334" s="113">
+        <v>1.2</v>
       </c>
       <c r="J334" s="120">
         <v>0</v>
@@ -25999,13 +26039,13 @@
         <v>271</v>
       </c>
       <c r="H341" s="150" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
       <c r="I341" s="150" t="s">
         <v>175</v>
       </c>
-      <c r="J341" s="166">
-        <v>1</v>
+      <c r="J341" s="166" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="342" spans="1:10" ht="18.75">
@@ -26068,8 +26108,8 @@
       <c r="I343" s="150">
         <v>0</v>
       </c>
-      <c r="J343" s="166">
-        <v>0</v>
+      <c r="J343" s="166" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="344" spans="1:10" ht="18.75">
@@ -26129,8 +26169,8 @@
       <c r="H345" s="149" t="s">
         <v>48</v>
       </c>
-      <c r="I345" s="150">
-        <v>0</v>
+      <c r="I345" s="150" t="s">
+        <v>482</v>
       </c>
       <c r="J345" s="166">
         <v>1</v>
@@ -26196,8 +26236,8 @@
       <c r="I347" s="150">
         <v>0</v>
       </c>
-      <c r="J347" s="166">
-        <v>1</v>
+      <c r="J347" s="166" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="348" spans="1:10" ht="18.75">
@@ -26257,8 +26297,8 @@
       <c r="H349" s="150" t="s">
         <v>38</v>
       </c>
-      <c r="I349" s="150">
-        <v>0</v>
+      <c r="I349" s="150" t="s">
+        <v>482</v>
       </c>
       <c r="J349" s="166">
         <v>1</v>
@@ -26289,8 +26329,8 @@
       <c r="H350" s="155" t="s">
         <v>25</v>
       </c>
-      <c r="I350" s="155">
-        <v>0</v>
+      <c r="I350" s="155" t="s">
+        <v>482</v>
       </c>
       <c r="J350" s="163">
         <v>0</v>
@@ -26354,7 +26394,7 @@
         <v>278</v>
       </c>
       <c r="I352" s="155" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="J352" s="163" t="s">
         <v>53</v>
@@ -26449,8 +26489,8 @@
       <c r="H355" s="150" t="s">
         <v>283</v>
       </c>
-      <c r="I355" s="150">
-        <v>1</v>
+      <c r="I355" s="150" t="s">
+        <v>464</v>
       </c>
       <c r="J355" s="166">
         <v>0</v>
@@ -26609,8 +26649,8 @@
       <c r="H360" s="157" t="s">
         <v>287</v>
       </c>
-      <c r="I360" s="157">
-        <v>1</v>
+      <c r="I360" s="157" t="s">
+        <v>484</v>
       </c>
       <c r="J360" s="161">
         <v>0</v>
@@ -26641,11 +26681,11 @@
       <c r="H361" s="150" t="s">
         <v>288</v>
       </c>
-      <c r="I361" s="150">
-        <v>0</v>
-      </c>
-      <c r="J361" s="166">
-        <v>0</v>
+      <c r="I361" s="150" t="s">
+        <v>482</v>
+      </c>
+      <c r="J361" s="166" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="362" spans="1:10" ht="18.75">
@@ -26741,7 +26781,7 @@
         <v>464</v>
       </c>
       <c r="J364" s="166" t="s">
-        <v>291</v>
+        <v>485</v>
       </c>
     </row>
     <row r="365" spans="1:10" ht="18.75">
@@ -26836,8 +26876,8 @@
       <c r="I367" s="150">
         <v>1</v>
       </c>
-      <c r="J367" s="166">
-        <v>0</v>
+      <c r="J367" s="166" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="368" spans="1:10" ht="18.75">
@@ -26868,8 +26908,8 @@
       <c r="I368" s="150" t="s">
         <v>464</v>
       </c>
-      <c r="J368" s="166">
-        <v>0</v>
+      <c r="J368" s="166" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="369" spans="1:10" ht="18.75">
@@ -28342,7 +28382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A35" sqref="A35:B41"/>
     </sheetView>
   </sheetViews>

--- a/combat/db25.xlsx
+++ b/combat/db25.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5401" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5401" uniqueCount="494">
   <si>
     <t>1_спортсмен_фио</t>
   </si>
@@ -1616,6 +1616,12 @@
   </si>
   <si>
     <t>0,1,5</t>
+  </si>
+  <si>
+    <t>алнрк, алрпг</t>
+  </si>
+  <si>
+    <t>алрпг, апрпг, алрпг</t>
   </si>
 </sst>
 </file>
@@ -2668,8 +2674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L390"/>
   <sheetViews>
-    <sheetView topLeftCell="A331" workbookViewId="0">
-      <selection activeCell="A351" sqref="A351"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100:XFD100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -15122,8 +15128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A349" workbookViewId="0">
-      <selection activeCell="H374" sqref="H374"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18326,7 +18332,7 @@
         <v>1</v>
       </c>
       <c r="G100" s="35" t="s">
-        <v>128</v>
+        <v>492</v>
       </c>
       <c r="H100" s="35" t="s">
         <v>39</v>
@@ -18393,7 +18399,7 @@
         <v>129</v>
       </c>
       <c r="H102" s="35" t="s">
-        <v>58</v>
+        <v>165</v>
       </c>
       <c r="I102" s="78">
         <v>1</v>
@@ -18422,7 +18428,7 @@
         <v>1</v>
       </c>
       <c r="G103" s="159" t="s">
-        <v>130</v>
+        <v>493</v>
       </c>
       <c r="H103" s="159" t="s">
         <v>54</v>
@@ -28382,8 +28388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:B41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="A35:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
